--- a/formaro_control.xlsx
+++ b/formaro_control.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GREGORY\Desktop\proyecto\formu-croni\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f586e16eea92795c/Escritorio/PROYECTOS/formulario-cronicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8D255C-6009-4CA0-A8F8-B8505CDDD328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{CC8D255C-6009-4CA0-A8F8-B8505CDDD328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A731F293-2EF1-4134-AEFD-02418E791D1B}"/>
   <bookViews>
-    <workbookView xWindow="105" yWindow="1560" windowWidth="28695" windowHeight="13575" xr2:uid="{AEF8F3D8-470B-4782-B927-C020F2D2F634}"/>
+    <workbookView xWindow="1740" yWindow="735" windowWidth="21600" windowHeight="11295" xr2:uid="{AEF8F3D8-470B-4782-B927-C020F2D2F634}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,20 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Documento</t>
   </si>
@@ -48,6 +40,15 @@
   </si>
   <si>
     <t>Diastolica</t>
+  </si>
+  <si>
+    <t>Diabetes</t>
+  </si>
+  <si>
+    <t>si</t>
+  </si>
+  <si>
+    <t>Hipertension</t>
   </si>
 </sst>
 </file>
@@ -399,21 +400,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{277D7A40-2FF5-407D-9CF6-6D990368F4F2}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="G9" sqref="G9:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -429,8 +430,14 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>123456</v>
       </c>
@@ -445,6 +452,12 @@
       </c>
       <c r="E2">
         <v>150</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
